--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Excel\Milano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DE3DFB-2C42-42D6-BCDB-3F9F858FE76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C5F87-0488-45CB-B6FD-3D7BC875F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>Timestamp</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>Mazzu è ok</t>
+  </si>
+  <si>
+    <t>Daniele Miccoli</t>
+  </si>
+  <si>
+    <t>Aldo Ritmo</t>
   </si>
 </sst>
 </file>
@@ -770,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1473,12 +1479,27 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="2">
+        <v>45172.596504629626</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C5F87-0488-45CB-B6FD-3D7BC875F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CB22C-60C7-4E9F-B9D1-1DF51BFDBC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -338,9 +338,6 @@
     <t>Puddi, Rudy Vitiello</t>
   </si>
   <si>
-    <t>SPL:Solo Per Letette (ciccu)</t>
-  </si>
-  <si>
     <t>Cameron McAinsh, Mazzu</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>Aldo Ritmo</t>
+  </si>
+  <si>
+    <t>SPL Solo Per Letette (ciccu)</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:G24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
@@ -1396,13 +1396,13 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
@@ -1423,22 +1423,22 @@
         <v>45171.624178240738</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1453,19 +1453,19 @@
         <v>45171.750925925924</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>32</v>
@@ -1483,10 +1483,10 @@
         <v>45172.596504629626</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>77</v>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CB22C-60C7-4E9F-B9D1-1DF51BFDBC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8865CF-39C4-4F03-B9EA-8B967E2E580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>Andrea Limonta, Franco</t>
   </si>
   <si>
-    <t>Cocò (Stoppi), Pedro</t>
-  </si>
-  <si>
     <t>Ilaria Pascutti</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>Cesarino’s</t>
   </si>
   <si>
-    <t>Cocò (Stoppi), Wissam Rahal</t>
-  </si>
-  <si>
     <t>Matteo Ciccaldo</t>
   </si>
   <si>
@@ -381,6 +375,12 @@
   </si>
   <si>
     <t>SPL Solo Per Letette (ciccu)</t>
+  </si>
+  <si>
+    <t>Coco' (Stoppi), Pedro</t>
+  </si>
+  <si>
+    <t>Coco' (Stoppi), Wissam Rahal</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C21" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
@@ -1348,7 +1348,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1363,13 +1363,13 @@
         <v>45170.869652777779</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -1378,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1393,22 +1393,22 @@
         <v>45171.019513888888</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1423,22 +1423,22 @@
         <v>45171.624178240738</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1453,19 +1453,19 @@
         <v>45171.750925925924</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>32</v>
@@ -1483,10 +1483,10 @@
         <v>45172.596504629626</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>77</v>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8865CF-39C4-4F03-B9EA-8B967E2E580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15998E6D-EC2B-4820-BD54-4DB9355845A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,13 +374,13 @@
     <t>Aldo Ritmo</t>
   </si>
   <si>
-    <t>SPL Solo Per Letette (ciccu)</t>
-  </si>
-  <si>
     <t>Coco' (Stoppi), Pedro</t>
   </si>
   <si>
     <t>Coco' (Stoppi), Wissam Rahal</t>
+  </si>
+  <si>
+    <t>SPL Solo Per Letette</t>
   </si>
 </sst>
 </file>
@@ -776,19 +776,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="48.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="160.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45167.882025462961</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45167.89435185185</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45167.930347222224</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45168.243252314816</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45168.497812499998</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45168.533912037034</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45168.737002314818</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45168.747569444444</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45168.804039351853</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45168.877071759256</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45169.594988425924</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45169.869953703703</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45169.880185185182</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45170.402881944443</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45170.659722222219</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45170.819456018522</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45170.869479166664</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45170.869652777779</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45171.019513888888</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>89</v>
@@ -1408,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1418,7 +1418,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45171.624178240738</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45171.750925925924</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45172.596504629626</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1524,7 +1524,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1556,7 +1556,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1588,7 +1588,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1604,7 +1604,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1620,7 +1620,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1636,7 +1636,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1652,7 +1652,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1668,7 +1668,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1684,7 +1684,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1700,7 +1700,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1716,7 +1716,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1732,7 +1732,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1748,7 +1748,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1764,7 +1764,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1780,7 +1780,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1796,7 +1796,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1828,7 +1828,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1844,7 +1844,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1860,7 +1860,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1892,7 +1892,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1908,7 +1908,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1956,7 +1956,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1988,7 +1988,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2004,7 +2004,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2020,7 +2020,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2036,7 +2036,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2068,7 +2068,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2084,7 +2084,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2148,7 +2148,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2164,7 +2164,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2180,7 +2180,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2196,7 +2196,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2212,7 +2212,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2228,7 +2228,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2244,7 +2244,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2260,7 +2260,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2276,7 +2276,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2292,7 +2292,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2324,7 +2324,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2340,7 +2340,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2372,7 +2372,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2404,7 +2404,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2420,7 +2420,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2436,7 +2436,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2452,7 +2452,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2484,7 +2484,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2500,7 +2500,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2516,7 +2516,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2532,7 +2532,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2548,7 +2548,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2564,7 +2564,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2580,7 +2580,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2596,7 +2596,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2612,7 +2612,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2628,7 +2628,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2644,7 +2644,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2660,7 +2660,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2676,7 +2676,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2692,7 +2692,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2708,7 +2708,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2724,7 +2724,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2740,7 +2740,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2756,7 +2756,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2772,7 +2772,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2788,7 +2788,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2804,7 +2804,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2820,7 +2820,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2836,7 +2836,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2868,7 +2868,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2884,7 +2884,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2900,7 +2900,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2916,7 +2916,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2932,7 +2932,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2948,7 +2948,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2964,7 +2964,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2980,7 +2980,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2996,7 +2996,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3012,7 +3012,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3028,7 +3028,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3044,7 +3044,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3060,7 +3060,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15998E6D-EC2B-4820-BD54-4DB9355845A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD699C-719E-44C5-BC86-E639FDA5E21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
   <si>
     <t>Timestamp</t>
   </si>
@@ -381,6 +381,45 @@
   </si>
   <si>
     <t>SPL Solo Per Letette</t>
+  </si>
+  <si>
+    <t>Alessio morneghini</t>
+  </si>
+  <si>
+    <t>Slayer FC</t>
+  </si>
+  <si>
+    <t>Fede Lelli, Robi Muu</t>
+  </si>
+  <si>
+    <t>Daniele Miccoli, Sergio</t>
+  </si>
+  <si>
+    <t>Robi Muuu</t>
+  </si>
+  <si>
+    <t>Foggia</t>
+  </si>
+  <si>
+    <t>Carlo Tempesta, Omar</t>
+  </si>
+  <si>
+    <t>Cerro, Gianluca</t>
+  </si>
+  <si>
+    <t>Damiano Barbanera, Giovanni Aiello</t>
+  </si>
+  <si>
+    <t>NonCiCapiscoNaMazza</t>
+  </si>
+  <si>
+    <t>Alessandro Gibertini, Fede Lelli</t>
+  </si>
+  <si>
+    <t>Emilano (Dani), Wissam Rahal</t>
+  </si>
+  <si>
+    <t>Guglielmo Bianco</t>
   </si>
 </sst>
 </file>
@@ -776,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,13 +1548,27 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="2">
+        <v>45172.646655092591</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1525,13 +1578,27 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="2">
+        <v>45175.334340277775</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1541,13 +1608,27 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="2">
+        <v>45175.418587962966</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1561,9 +1642,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD699C-719E-44C5-BC86-E639FDA5E21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF05D2D0-DF9A-4DB0-9D89-EEC41938D3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Timestamp</t>
   </si>
@@ -420,6 +420,27 @@
   </si>
   <si>
     <t>Guglielmo Bianco</t>
+  </si>
+  <si>
+    <t>Willy Rodriguez</t>
+  </si>
+  <si>
+    <t>La Paranza Degli Scarponi</t>
+  </si>
+  <si>
+    <t>Andrea Limonta, Francesco</t>
+  </si>
+  <si>
+    <t>Giulio Pacifico</t>
+  </si>
+  <si>
+    <t>Coyote (Cri), Fede Lelli</t>
+  </si>
+  <si>
+    <t>AC Tua</t>
+  </si>
+  <si>
+    <t>Robi (Stoppi), Stefano (Tito)</t>
   </si>
 </sst>
 </file>
@@ -815,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,11 +1659,29 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="2">
+        <v>45175.496979166666</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1652,13 +1691,29 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="2">
+        <v>45175.555879629632</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1688,7 +1743,6 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="K31" s="1"/>
@@ -1704,7 +1758,6 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="K32" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF05D2D0-DF9A-4DB0-9D89-EEC41938D3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA0DE83-6E99-45E1-BFB4-354D25B4613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="131">
   <si>
     <t>Timestamp</t>
   </si>
@@ -441,6 +441,18 @@
   </si>
   <si>
     <t>Robi (Stoppi), Stefano (Tito)</t>
+  </si>
+  <si>
+    <t>Stefano Bolis</t>
+  </si>
+  <si>
+    <t>Andrea Scalambra, Ludovico Righi</t>
+  </si>
+  <si>
+    <t>DAS PORTO</t>
+  </si>
+  <si>
+    <t>Federico (Damiano), Franco</t>
   </si>
 </sst>
 </file>
@@ -837,7 +849,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,13 +1735,27 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="2">
+        <v>45175.723761574074</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1743,7 +1769,6 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA0DE83-6E99-45E1-BFB4-354D25B4613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1D05F-47EE-4077-896C-82317728E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>Timestamp</t>
   </si>
@@ -453,6 +453,30 @@
   </si>
   <si>
     <t>Federico (Damiano), Franco</t>
+  </si>
+  <si>
+    <t>Wissam Rahal</t>
+  </si>
+  <si>
+    <t>Leo (Cava), Terni (Damiano)</t>
+  </si>
+  <si>
+    <t>Rahal Madrid</t>
+  </si>
+  <si>
+    <t>Franco Abregu Guzman</t>
+  </si>
+  <si>
+    <t>Ale (Mazzu), Leo (Cava)</t>
+  </si>
+  <si>
+    <t>Si è girato Mazzoud</t>
+  </si>
+  <si>
+    <t>Federico (Damiano), Luca Stoppi</t>
+  </si>
+  <si>
+    <t>Daniele Miccoli, Mazzu</t>
   </si>
 </sst>
 </file>
@@ -849,7 +873,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,11 +1789,27 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="2">
+        <v>45175.806701388887</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1778,13 +1818,28 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45175.835763888892</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1815,7 +1870,6 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1831,7 +1885,6 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1D05F-47EE-4077-896C-82317728E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B56A51-872E-47FF-8501-087AABDEBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
   <si>
     <t>Timestamp</t>
   </si>
@@ -477,6 +477,48 @@
   </si>
   <si>
     <t>Daniele Miccoli, Mazzu</t>
+  </si>
+  <si>
+    <t>Gianluca Sironi</t>
+  </si>
+  <si>
+    <t>Marco Taglio, Omar</t>
+  </si>
+  <si>
+    <t>Calabria Saudita</t>
+  </si>
+  <si>
+    <t>Gianluca, Tito</t>
+  </si>
+  <si>
+    <t>Damiano Barbanera, Mazzu</t>
+  </si>
+  <si>
+    <t>Andrea De Gaetano</t>
+  </si>
+  <si>
+    <t>Andrea Scalambra, Zen</t>
+  </si>
+  <si>
+    <t>BaffoImpregnato</t>
+  </si>
+  <si>
+    <t>Fabrizio Limonta, Franco</t>
+  </si>
+  <si>
+    <t>Luca Stopelli</t>
+  </si>
+  <si>
+    <t>Coyote (Cri), Luca SDV</t>
+  </si>
+  <si>
+    <t>Sesso Paperoga Lamborghini</t>
+  </si>
+  <si>
+    <t>Cerro, Matteo (Riccardo)</t>
+  </si>
+  <si>
+    <t>Giovanni Aiello, Sergio</t>
   </si>
 </sst>
 </file>
@@ -872,19 +914,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="160.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -914,7 +956,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45167.882025462961</v>
       </c>
@@ -944,7 +986,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -974,7 +1016,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45167.89435185185</v>
       </c>
@@ -1004,7 +1046,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45167.930347222224</v>
       </c>
@@ -1034,7 +1076,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45168.243252314816</v>
       </c>
@@ -1064,7 +1106,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45168.497812499998</v>
       </c>
@@ -1094,7 +1136,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45168.533912037034</v>
       </c>
@@ -1124,7 +1166,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45168.737002314818</v>
       </c>
@@ -1154,7 +1196,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45168.747569444444</v>
       </c>
@@ -1184,7 +1226,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45168.804039351853</v>
       </c>
@@ -1214,7 +1256,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45168.877071759256</v>
       </c>
@@ -1244,7 +1286,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45169.594988425924</v>
       </c>
@@ -1274,7 +1316,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45169.869953703703</v>
       </c>
@@ -1304,7 +1346,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45169.880185185182</v>
       </c>
@@ -1334,7 +1376,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45170.402881944443</v>
       </c>
@@ -1364,7 +1406,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45170.659722222219</v>
       </c>
@@ -1394,7 +1436,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45170.819456018522</v>
       </c>
@@ -1424,7 +1466,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45170.869479166664</v>
       </c>
@@ -1454,7 +1496,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45170.869652777779</v>
       </c>
@@ -1484,7 +1526,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45171.019513888888</v>
       </c>
@@ -1514,7 +1556,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45171.624178240738</v>
       </c>
@@ -1544,7 +1586,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45171.750925925924</v>
       </c>
@@ -1574,7 +1616,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45172.596504629626</v>
       </c>
@@ -1604,7 +1646,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45172.646655092591</v>
       </c>
@@ -1634,7 +1676,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45175.334340277775</v>
       </c>
@@ -1664,7 +1706,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45175.418587962966</v>
       </c>
@@ -1694,7 +1736,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45175.496979166666</v>
       </c>
@@ -1726,7 +1768,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45175.555879629632</v>
       </c>
@@ -1758,7 +1800,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45175.723761574074</v>
       </c>
@@ -1788,7 +1830,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45175.806701388887</v>
       </c>
@@ -1818,7 +1860,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45175.835763888892</v>
       </c>
@@ -1848,14 +1890,28 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>45176.619340277779</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1864,13 +1920,28 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>45176.809710648151</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1879,13 +1950,28 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
+    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>45176.830462962964</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1894,13 +1980,12 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1910,13 +1995,12 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1926,13 +2010,12 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1942,7 +2025,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1958,7 +2041,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1974,7 +2057,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1990,7 +2073,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2006,7 +2089,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2022,7 +2105,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2038,7 +2121,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2054,7 +2137,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2070,7 +2153,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2086,7 +2169,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2102,7 +2185,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2118,7 +2201,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2134,7 +2217,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2150,7 +2233,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2166,7 +2249,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2182,7 +2265,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2198,7 +2281,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2214,7 +2297,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2230,7 +2313,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2246,7 +2329,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2262,7 +2345,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2278,7 +2361,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2294,7 +2377,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2310,7 +2393,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2326,7 +2409,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2342,7 +2425,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2358,7 +2441,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2374,7 +2457,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2390,7 +2473,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2406,7 +2489,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2422,7 +2505,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2438,7 +2521,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2454,7 +2537,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2470,7 +2553,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2486,7 +2569,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2502,7 +2585,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2518,7 +2601,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2534,7 +2617,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2550,7 +2633,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2566,7 +2649,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2582,7 +2665,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2598,7 +2681,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2614,7 +2697,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2630,7 +2713,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2646,7 +2729,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2662,7 +2745,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2678,7 +2761,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2694,7 +2777,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2710,7 +2793,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2726,7 +2809,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2742,7 +2825,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2758,7 +2841,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2774,7 +2857,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2790,7 +2873,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2806,7 +2889,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2822,7 +2905,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2838,7 +2921,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2854,7 +2937,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2870,7 +2953,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2886,7 +2969,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2902,7 +2985,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2918,7 +3001,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2934,7 +3017,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2950,7 +3033,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2966,7 +3049,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2982,7 +3065,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2998,7 +3081,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3014,7 +3097,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3030,7 +3113,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3046,7 +3129,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3062,7 +3145,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3078,7 +3161,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3094,7 +3177,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3110,7 +3193,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3126,7 +3209,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3142,7 +3225,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3158,7 +3241,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3174,7 +3257,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3190,7 +3273,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3206,7 +3289,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3222,7 +3305,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3238,7 +3321,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3254,7 +3337,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3270,7 +3353,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B56A51-872E-47FF-8501-087AABDEBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCCCCB-94E9-45C6-A928-F68C05CB95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
   <si>
     <t>Timestamp</t>
   </si>
@@ -519,6 +519,21 @@
   </si>
   <si>
     <t>Giovanni Aiello, Sergio</t>
+  </si>
+  <si>
+    <t>Camilla Manzo</t>
+  </si>
+  <si>
+    <t>Braz, Zen</t>
+  </si>
+  <si>
+    <t>FantasticTeam</t>
+  </si>
+  <si>
+    <t>Ingra, Tito</t>
+  </si>
+  <si>
+    <t>Andrea Silverstri, Roby (Cri)</t>
   </si>
 </sst>
 </file>
@@ -915,7 +930,7 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G35"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1981,12 +1996,27 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="2">
+        <v>45176.858310185184</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2031,7 +2061,6 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCCCCB-94E9-45C6-A928-F68C05CB95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A73779-385A-4209-BC75-BD56B418FADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
   <si>
     <t>Timestamp</t>
   </si>
@@ -534,6 +534,18 @@
   </si>
   <si>
     <t>Andrea Silverstri, Roby (Cri)</t>
+  </si>
+  <si>
+    <t>Federico Petraccia</t>
+  </si>
+  <si>
+    <t>Jacopo, Leo (Cava)</t>
+  </si>
+  <si>
+    <t>Damiano Zingaro</t>
+  </si>
+  <si>
+    <t>Riccardo Ricci, Robi (Stoppi)</t>
   </si>
 </sst>
 </file>
@@ -929,19 +941,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="48.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="160.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,7 +983,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45167.882025462961</v>
       </c>
@@ -1001,7 +1013,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -1031,7 +1043,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45167.89435185185</v>
       </c>
@@ -1061,7 +1073,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45167.930347222224</v>
       </c>
@@ -1091,7 +1103,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45168.243252314816</v>
       </c>
@@ -1121,7 +1133,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45168.497812499998</v>
       </c>
@@ -1151,7 +1163,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45168.533912037034</v>
       </c>
@@ -1181,7 +1193,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45168.737002314818</v>
       </c>
@@ -1211,7 +1223,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45168.747569444444</v>
       </c>
@@ -1241,7 +1253,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45168.804039351853</v>
       </c>
@@ -1271,7 +1283,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45168.877071759256</v>
       </c>
@@ -1301,7 +1313,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45169.594988425924</v>
       </c>
@@ -1331,7 +1343,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45169.869953703703</v>
       </c>
@@ -1361,7 +1373,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45169.880185185182</v>
       </c>
@@ -1391,7 +1403,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45170.402881944443</v>
       </c>
@@ -1421,7 +1433,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45170.659722222219</v>
       </c>
@@ -1451,7 +1463,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45170.819456018522</v>
       </c>
@@ -1481,7 +1493,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45170.869479166664</v>
       </c>
@@ -1511,7 +1523,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45170.869652777779</v>
       </c>
@@ -1541,7 +1553,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45171.019513888888</v>
       </c>
@@ -1571,7 +1583,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45171.624178240738</v>
       </c>
@@ -1601,7 +1613,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45171.750925925924</v>
       </c>
@@ -1631,7 +1643,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45172.596504629626</v>
       </c>
@@ -1661,7 +1673,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45172.646655092591</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45175.334340277775</v>
       </c>
@@ -1721,7 +1733,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45175.418587962966</v>
       </c>
@@ -1751,7 +1763,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45175.496979166666</v>
       </c>
@@ -1783,7 +1795,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45175.555879629632</v>
       </c>
@@ -1815,7 +1827,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45175.723761574074</v>
       </c>
@@ -1845,7 +1857,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45175.806701388887</v>
       </c>
@@ -1875,7 +1887,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45175.835763888892</v>
       </c>
@@ -1905,7 +1917,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45176.619340277779</v>
       </c>
@@ -1935,7 +1947,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45176.809710648151</v>
       </c>
@@ -1965,7 +1977,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45176.830462962964</v>
       </c>
@@ -1995,7 +2007,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45176.858310185184</v>
       </c>
@@ -2025,13 +2037,28 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45180.852777777778</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2040,7 +2067,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2055,7 +2082,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2070,7 +2097,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2086,7 +2113,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2102,7 +2129,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2118,7 +2145,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2134,7 +2161,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2150,7 +2177,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2166,7 +2193,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2182,7 +2209,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2198,7 +2225,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2214,7 +2241,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2230,7 +2257,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2246,7 +2273,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2262,7 +2289,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2278,7 +2305,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2294,7 +2321,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2310,7 +2337,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2326,7 +2353,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2342,7 +2369,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2358,7 +2385,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2374,7 +2401,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2390,7 +2417,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2406,7 +2433,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2422,7 +2449,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2438,7 +2465,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2454,7 +2481,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2470,7 +2497,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2486,7 +2513,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2502,7 +2529,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2518,7 +2545,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2534,7 +2561,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2550,7 +2577,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2566,7 +2593,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2582,7 +2609,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2598,7 +2625,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2614,7 +2641,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2630,7 +2657,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2646,7 +2673,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2662,7 +2689,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2678,7 +2705,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2694,7 +2721,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2710,7 +2737,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2726,7 +2753,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2742,7 +2769,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2758,7 +2785,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2774,7 +2801,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2790,7 +2817,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2806,7 +2833,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2822,7 +2849,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2838,7 +2865,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2854,7 +2881,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2870,7 +2897,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2886,7 +2913,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2902,7 +2929,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2918,7 +2945,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2934,7 +2961,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2950,7 +2977,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2966,7 +2993,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2982,7 +3009,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2998,7 +3025,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3014,7 +3041,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3030,7 +3057,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3046,7 +3073,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3062,7 +3089,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3078,7 +3105,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3094,7 +3121,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3110,7 +3137,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3126,7 +3153,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3142,7 +3169,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3158,7 +3185,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3174,7 +3201,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3190,7 +3217,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3206,7 +3233,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3222,7 +3249,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3238,7 +3265,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3254,7 +3281,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3270,7 +3297,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3286,7 +3313,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3302,7 +3329,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3318,7 +3345,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3334,7 +3361,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3350,7 +3377,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3366,7 +3393,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3382,7 +3409,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A73779-385A-4209-BC75-BD56B418FADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3637A4-73EE-48B2-ABC1-E381AA0BF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
   <si>
     <t>Timestamp</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>Riccardo Ricci, Robi (Stoppi)</t>
+  </si>
+  <si>
+    <t>Mario Croce</t>
+  </si>
+  <si>
+    <t>Ale (Fabri), Omar</t>
+  </si>
+  <si>
+    <t>AS TRONZI</t>
+  </si>
+  <si>
+    <t>Eugenio Gibertini, Riccardo Ricci</t>
   </si>
 </sst>
 </file>
@@ -941,19 +953,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="160.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -983,7 +995,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45167.882025462961</v>
       </c>
@@ -1013,7 +1025,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -1043,7 +1055,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45167.89435185185</v>
       </c>
@@ -1073,7 +1085,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45167.930347222224</v>
       </c>
@@ -1103,7 +1115,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45168.243252314816</v>
       </c>
@@ -1133,7 +1145,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45168.497812499998</v>
       </c>
@@ -1163,7 +1175,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45168.533912037034</v>
       </c>
@@ -1193,7 +1205,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45168.737002314818</v>
       </c>
@@ -1223,7 +1235,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45168.747569444444</v>
       </c>
@@ -1253,7 +1265,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45168.804039351853</v>
       </c>
@@ -1283,7 +1295,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45168.877071759256</v>
       </c>
@@ -1313,7 +1325,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45169.594988425924</v>
       </c>
@@ -1343,7 +1355,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45169.869953703703</v>
       </c>
@@ -1373,7 +1385,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45169.880185185182</v>
       </c>
@@ -1403,7 +1415,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45170.402881944443</v>
       </c>
@@ -1433,7 +1445,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45170.659722222219</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45170.819456018522</v>
       </c>
@@ -1493,7 +1505,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45170.869479166664</v>
       </c>
@@ -1523,7 +1535,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45170.869652777779</v>
       </c>
@@ -1553,7 +1565,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45171.019513888888</v>
       </c>
@@ -1583,7 +1595,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45171.624178240738</v>
       </c>
@@ -1613,7 +1625,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45171.750925925924</v>
       </c>
@@ -1643,7 +1655,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45172.596504629626</v>
       </c>
@@ -1673,7 +1685,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45172.646655092591</v>
       </c>
@@ -1703,7 +1715,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45175.334340277775</v>
       </c>
@@ -1733,7 +1745,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45175.418587962966</v>
       </c>
@@ -1763,7 +1775,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45175.496979166666</v>
       </c>
@@ -1795,7 +1807,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45175.555879629632</v>
       </c>
@@ -1827,7 +1839,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45175.723761574074</v>
       </c>
@@ -1857,7 +1869,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45175.806701388887</v>
       </c>
@@ -1887,7 +1899,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45175.835763888892</v>
       </c>
@@ -1917,7 +1929,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45176.619340277779</v>
       </c>
@@ -1947,7 +1959,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45176.809710648151</v>
       </c>
@@ -1977,7 +1989,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>45176.830462962964</v>
       </c>
@@ -2007,7 +2019,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>45176.858310185184</v>
       </c>
@@ -2037,7 +2049,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>45180.852777777778</v>
       </c>
@@ -2067,13 +2079,28 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>45183.641875000001</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2082,7 +2109,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2097,13 +2124,12 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2113,7 +2139,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2129,7 +2155,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2145,7 +2171,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2161,7 +2187,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2177,7 +2203,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2193,7 +2219,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2209,7 +2235,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2225,7 +2251,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2241,7 +2267,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2257,7 +2283,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2273,7 +2299,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2289,7 +2315,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2305,7 +2331,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2321,7 +2347,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2337,7 +2363,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2353,7 +2379,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2369,7 +2395,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2385,7 +2411,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2401,7 +2427,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2417,7 +2443,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2433,7 +2459,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2449,7 +2475,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2465,7 +2491,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2481,7 +2507,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2497,7 +2523,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2513,7 +2539,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2529,7 +2555,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2545,7 +2571,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2561,7 +2587,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2577,7 +2603,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2593,7 +2619,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2609,7 +2635,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2625,7 +2651,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2641,7 +2667,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2657,7 +2683,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2673,7 +2699,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2689,7 +2715,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2705,7 +2731,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2721,7 +2747,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2737,7 +2763,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2753,7 +2779,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2769,7 +2795,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2785,7 +2811,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2801,7 +2827,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2817,7 +2843,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2833,7 +2859,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2849,7 +2875,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2865,7 +2891,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2881,7 +2907,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2897,7 +2923,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2913,7 +2939,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2929,7 +2955,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2945,7 +2971,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2961,7 +2987,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2977,7 +3003,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2993,7 +3019,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3009,7 +3035,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3025,7 +3051,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3041,7 +3067,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3057,7 +3083,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3073,7 +3099,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3089,7 +3115,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3105,7 +3131,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3121,7 +3147,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3137,7 +3163,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3153,7 +3179,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3169,7 +3195,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3185,7 +3211,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3201,7 +3227,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3217,7 +3243,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3233,7 +3259,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3249,7 +3275,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3265,7 +3291,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3281,7 +3307,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3297,7 +3323,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3313,7 +3339,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3329,7 +3355,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3345,7 +3371,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3361,7 +3387,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3377,7 +3403,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3393,7 +3419,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3409,7 +3435,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3637A4-73EE-48B2-ABC1-E381AA0BF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C44CB6-BE2F-4D2B-B9EF-41DD2FB6073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>Timestamp</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Andrea Limonta, Luca Stoppi</t>
   </si>
   <si>
-    <t>Ale Guati, Cerro</t>
-  </si>
-  <si>
     <t>Cristian Diaz Lopez</t>
   </si>
   <si>
@@ -558,6 +555,36 @@
   </si>
   <si>
     <t>Eugenio Gibertini, Riccardo Ricci</t>
+  </si>
+  <si>
+    <t>Isabella Daly Forsch</t>
+  </si>
+  <si>
+    <t>Frozzynone</t>
+  </si>
+  <si>
+    <t>Martina Perfetto</t>
+  </si>
+  <si>
+    <t>Olesto</t>
+  </si>
+  <si>
+    <t>Renzo Micchuzzella</t>
+  </si>
+  <si>
+    <t>Ludovico Righi, Puddi</t>
+  </si>
+  <si>
+    <t>Cerro, Guido (Sergio)</t>
+  </si>
+  <si>
+    <t>Federico Paolucci, Mazzu</t>
+  </si>
+  <si>
+    <t>Rocco, Cerro</t>
+  </si>
+  <si>
+    <t>Quant'è bello Damiano in canotta</t>
   </si>
 </sst>
 </file>
@@ -953,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,7 +1052,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -1045,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1060,22 +1087,22 @@
         <v>45167.89435185185</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1090,22 +1117,22 @@
         <v>45167.930347222224</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1120,22 +1147,22 @@
         <v>45168.243252314816</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1150,22 +1177,22 @@
         <v>45168.497812499998</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1180,22 +1207,22 @@
         <v>45168.533912037034</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1210,22 +1237,22 @@
         <v>45168.737002314818</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1240,22 +1267,22 @@
         <v>45168.747569444444</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1270,22 +1297,22 @@
         <v>45168.804039351853</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1300,22 +1327,22 @@
         <v>45168.877071759256</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1330,22 +1357,22 @@
         <v>45169.594988425924</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1360,22 +1387,22 @@
         <v>45169.869953703703</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1390,22 +1417,22 @@
         <v>45169.880185185182</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1420,22 +1447,22 @@
         <v>45170.402881944443</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1450,13 +1477,13 @@
         <v>45170.659722222219</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -1465,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1480,22 +1507,22 @@
         <v>45170.819456018522</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1510,22 +1537,22 @@
         <v>45170.869479166664</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1540,22 +1567,22 @@
         <v>45170.869652777779</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1570,22 +1597,22 @@
         <v>45171.019513888888</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1600,22 +1627,22 @@
         <v>45171.624178240738</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1630,22 +1657,22 @@
         <v>45171.750925925924</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1660,22 +1687,22 @@
         <v>45172.596504629626</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1690,19 +1717,19 @@
         <v>45172.646655092591</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
@@ -1720,22 +1747,22 @@
         <v>45175.334340277775</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1750,22 +1777,22 @@
         <v>45175.418587962966</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1780,22 +1807,22 @@
         <v>45175.496979166666</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1812,13 +1839,13 @@
         <v>45175.555879629632</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1827,7 +1854,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1844,22 +1871,22 @@
         <v>45175.723761574074</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1874,22 +1901,22 @@
         <v>45175.806701388887</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1904,22 +1931,22 @@
         <v>45175.835763888892</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1934,22 +1961,22 @@
         <v>45176.619340277779</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1964,22 +1991,22 @@
         <v>45176.809710648151</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1994,22 +2021,22 @@
         <v>45176.830462962964</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2024,22 +2051,22 @@
         <v>45176.858310185184</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2054,22 +2081,22 @@
         <v>45180.852777777778</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2084,22 +2111,22 @@
         <v>45183.641875000001</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2110,12 +2137,29 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="A39" s="2">
+        <v>45184.953715277778</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2125,12 +2169,29 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="2">
+        <v>45185.806875000002</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2140,13 +2201,29 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="2">
+        <v>45189.930694444447</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2193,7 +2270,6 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2209,7 +2285,6 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2225,7 +2300,6 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C44CB6-BE2F-4D2B-B9EF-41DD2FB6073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819EBC4-D6D6-40F4-B44B-1935B2BC82BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="176">
   <si>
     <t>Timestamp</t>
   </si>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>Quant'è bello Damiano in canotta</t>
+  </si>
+  <si>
+    <t>Rocco, Sergio</t>
   </si>
 </sst>
 </file>
@@ -980,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1096,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819EBC4-D6D6-40F4-B44B-1935B2BC82BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AF988D-C268-4171-AB49-194B43ECDE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
   <si>
     <t>Timestamp</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>Rocco, Sergio</t>
+  </si>
+  <si>
+    <t>Jacopo, Luca SDV</t>
+  </si>
+  <si>
+    <t>Riccardo Ricci, Maurizio</t>
   </si>
 </sst>
 </file>
@@ -983,19 +989,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C3E264-D14D-4772-8429-AE233DC188D3}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="48.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="160.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1031,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45167.882025462961</v>
       </c>
@@ -1055,7 +1061,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -1085,7 +1091,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45167.89435185185</v>
       </c>
@@ -1115,7 +1121,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45167.930347222224</v>
       </c>
@@ -1145,7 +1151,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45168.243252314816</v>
       </c>
@@ -1175,7 +1181,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45168.497812499998</v>
       </c>
@@ -1205,7 +1211,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45168.533912037034</v>
       </c>
@@ -1235,7 +1241,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45168.737002314818</v>
       </c>
@@ -1265,7 +1271,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45168.747569444444</v>
       </c>
@@ -1295,7 +1301,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45168.804039351853</v>
       </c>
@@ -1325,7 +1331,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45168.877071759256</v>
       </c>
@@ -1355,7 +1361,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45169.594988425924</v>
       </c>
@@ -1385,7 +1391,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45169.869953703703</v>
       </c>
@@ -1415,7 +1421,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45169.880185185182</v>
       </c>
@@ -1445,7 +1451,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45170.402881944443</v>
       </c>
@@ -1475,7 +1481,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45170.659722222219</v>
       </c>
@@ -1505,7 +1511,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45170.819456018522</v>
       </c>
@@ -1535,7 +1541,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45170.869479166664</v>
       </c>
@@ -1565,7 +1571,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45170.869652777779</v>
       </c>
@@ -1595,7 +1601,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45171.019513888888</v>
       </c>
@@ -1625,7 +1631,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45171.624178240738</v>
       </c>
@@ -1655,7 +1661,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45171.750925925924</v>
       </c>
@@ -1685,7 +1691,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45172.596504629626</v>
       </c>
@@ -1715,7 +1721,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45172.646655092591</v>
       </c>
@@ -1745,7 +1751,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45175.334340277775</v>
       </c>
@@ -1775,7 +1781,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45175.418587962966</v>
       </c>
@@ -1805,7 +1811,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45175.496979166666</v>
       </c>
@@ -1837,7 +1843,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45175.555879629632</v>
       </c>
@@ -1869,7 +1875,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45175.723761574074</v>
       </c>
@@ -1899,7 +1905,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45175.806701388887</v>
       </c>
@@ -1929,7 +1935,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45175.835763888892</v>
       </c>
@@ -1959,7 +1965,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45176.619340277779</v>
       </c>
@@ -1989,7 +1995,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45176.809710648151</v>
       </c>
@@ -2019,7 +2025,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45176.830462962964</v>
       </c>
@@ -2049,7 +2055,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45176.858310185184</v>
       </c>
@@ -2079,7 +2085,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45180.852777777778</v>
       </c>
@@ -2109,7 +2115,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45183.641875000001</v>
       </c>
@@ -2139,7 +2145,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45184.953715277778</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>166</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>35</v>
@@ -2171,7 +2177,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45185.806875000002</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2203,7 +2209,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45189.930694444447</v>
       </c>
@@ -2235,7 +2241,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2251,7 +2257,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2267,7 +2273,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2282,7 +2288,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2297,7 +2303,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2312,7 +2318,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2328,7 +2334,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2344,7 +2350,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2360,7 +2366,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2376,7 +2382,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2392,7 +2398,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2408,7 +2414,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2424,7 +2430,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2440,7 +2446,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2456,7 +2462,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2472,7 +2478,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2488,7 +2494,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2504,7 +2510,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2520,7 +2526,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2536,7 +2542,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2552,7 +2558,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2568,7 +2574,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2584,7 +2590,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2600,7 +2606,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2616,7 +2622,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2632,7 +2638,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2648,7 +2654,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2664,7 +2670,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2680,7 +2686,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2696,7 +2702,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2712,7 +2718,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2728,7 +2734,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2744,7 +2750,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2760,7 +2766,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2776,7 +2782,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2792,7 +2798,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2808,7 +2814,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2824,7 +2830,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2840,7 +2846,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2856,7 +2862,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2872,7 +2878,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2888,7 +2894,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2904,7 +2910,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2920,7 +2926,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2936,7 +2942,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2952,7 +2958,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2968,7 +2974,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2984,7 +2990,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3000,7 +3006,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3016,7 +3022,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3032,7 +3038,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3048,7 +3054,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3064,7 +3070,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3080,7 +3086,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3096,7 +3102,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3112,7 +3118,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3128,7 +3134,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3144,7 +3150,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3160,7 +3166,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3176,7 +3182,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3192,7 +3198,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3208,7 +3214,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3224,7 +3230,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3240,7 +3246,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3256,7 +3262,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3272,7 +3278,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3288,7 +3294,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3304,7 +3310,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3320,7 +3326,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3336,7 +3342,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3352,7 +3358,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3368,7 +3374,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3384,7 +3390,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3400,7 +3406,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3416,7 +3422,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3432,7 +3438,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3448,7 +3454,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3464,7 +3470,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3480,7 +3486,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3496,7 +3502,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3512,7 +3518,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>

--- a/Input/FantaSquadre/FantaSquadre_Milano.xlsx
+++ b/Input/FantaSquadre/FantaSquadre_Milano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\SPL_v_0.2\SPL_Regional\Input\FantaSquadre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcainsh\Desktop\Scripts_Other\Other\SPL\SPL_Regional\Input\FantaSquadre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AF988D-C268-4171-AB49-194B43ECDE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81A80E-70A8-454D-BA0B-6A8B888DE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDEB25F4-4DD5-4D1B-905C-6CCF61D91AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
   <si>
     <t>Timestamp</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Riccardo Ricci, Maurizio</t>
+  </si>
+  <si>
+    <t>Pedro, Robi (Stoppi)</t>
   </si>
 </sst>
 </file>
@@ -990,18 +993,18 @@
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="163.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1034,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45167.882025462961</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45167.894050925926</v>
       </c>
@@ -1091,7 +1094,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45167.89435185185</v>
       </c>
@@ -1121,7 +1124,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45167.930347222224</v>
       </c>
@@ -1151,7 +1154,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45168.243252314816</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45168.497812499998</v>
       </c>
@@ -1211,7 +1214,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45168.533912037034</v>
       </c>
@@ -1241,7 +1244,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45168.737002314818</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45168.747569444444</v>
       </c>
@@ -1301,7 +1304,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45168.804039351853</v>
       </c>
@@ -1331,7 +1334,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45168.877071759256</v>
       </c>
@@ -1361,7 +1364,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45169.594988425924</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45169.869953703703</v>
       </c>
@@ -1421,7 +1424,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45169.880185185182</v>
       </c>
@@ -1451,7 +1454,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45170.402881944443</v>
       </c>
@@ -1481,7 +1484,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45170.659722222219</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45170.819456018522</v>
       </c>
@@ -1541,7 +1544,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45170.869479166664</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45170.869652777779</v>
       </c>
@@ -1601,7 +1604,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45171.019513888888</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45171.624178240738</v>
       </c>
@@ -1661,7 +1664,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45171.750925925924</v>
       </c>
@@ -1691,7 +1694,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45172.596504629626</v>
       </c>
@@ -1721,7 +1724,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45172.646655092591</v>
       </c>
@@ -1751,7 +1754,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45175.334340277775</v>
       </c>
@@ -1781,7 +1784,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45175.418587962966</v>
       </c>
@@ -1811,7 +1814,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45175.496979166666</v>
       </c>
@@ -1843,7 +1846,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45175.555879629632</v>
       </c>
@@ -1875,7 +1878,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45175.723761574074</v>
       </c>
@@ -1905,7 +1908,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45175.806701388887</v>
       </c>
@@ -1935,7 +1938,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45175.835763888892</v>
       </c>
@@ -1965,7 +1968,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>45176.619340277779</v>
       </c>
@@ -1995,7 +1998,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>45176.809710648151</v>
       </c>
@@ -2025,7 +2028,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>45176.830462962964</v>
       </c>
@@ -2055,7 +2058,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>45176.858310185184</v>
       </c>
@@ -2085,7 +2088,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>45180.852777777778</v>
       </c>
@@ -2115,7 +2118,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45183.641875000001</v>
       </c>
@@ -2145,7 +2148,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>45184.953715277778</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2177,7 +2180,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>45185.806875000002</v>
       </c>
@@ -2209,7 +2212,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>45189.930694444447</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2257,7 +2260,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2273,7 +2276,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2288,7 +2291,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2303,7 +2306,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2318,7 +2321,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2334,7 +2337,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2350,7 +2353,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2366,7 +2369,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2382,7 +2385,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2398,7 +2401,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2414,7 +2417,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2430,7 +2433,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2446,7 +2449,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2462,7 +2465,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2478,7 +2481,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2494,7 +2497,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2510,7 +2513,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2526,7 +2529,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2542,7 +2545,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2558,7 +2561,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2574,7 +2577,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2590,7 +2593,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2606,7 +2609,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2622,7 +2625,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2638,7 +2641,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2654,7 +2657,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2670,7 +2673,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2686,7 +2689,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2702,7 +2705,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2718,7 +2721,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2734,7 +2737,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2750,7 +2753,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2766,7 +2769,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2782,7 +2785,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2798,7 +2801,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2814,7 +2817,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2830,7 +2833,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2846,7 +2849,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2862,7 +2865,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2878,7 +2881,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2894,7 +2897,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2910,7 +2913,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2926,7 +2929,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2942,7 +2945,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2958,7 +2961,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2974,7 +2977,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2990,7 +2993,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3006,7 +3009,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3022,7 +3025,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3038,7 +3041,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3054,7 +3057,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3070,7 +3073,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3086,7 +3089,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3102,7 +3105,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3118,7 +3121,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3134,7 +3137,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3150,7 +3153,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3166,7 +3169,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3182,7 +3185,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3198,7 +3201,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3214,7 +3217,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3230,7 +3233,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3246,7 +3249,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3262,7 +3265,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3278,7 +3281,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3294,7 +3297,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3310,7 +3313,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3326,7 +3329,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3342,7 +3345,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3358,7 +3361,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3374,7 +3377,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3390,7 +3393,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3406,7 +3409,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3422,7 +3425,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3438,7 +3441,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3454,7 +3457,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3470,7 +3473,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3486,7 +3489,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3502,7 +3505,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3518,7 +3521,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
